--- a/room_attribution/resultats/demi_journee_0/statistiques.xlsx
+++ b/room_attribution/resultats/demi_journee_0/statistiques.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6312</t>
+          <t>6367</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1445.20s</t>
+          <t>190.07s</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1052 (100.0%)</t>
+          <t>1041 (99.0%)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (1.0%)</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>3771</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>437</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -706,7 +706,7 @@
         <v>190</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1030,7 +1030,7 @@
         <v>33</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1048,7 +1048,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
